--- a/data.xlsx
+++ b/data.xlsx
@@ -1,26 +1,594 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SSSS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9450EE-F51B-4210-A298-D3C79AFBDF1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="900" yWindow="-110" windowWidth="18410" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="楽曲" sheetId="1" r:id="rId1"/>
+    <sheet name="楽曲コード" sheetId="2" r:id="rId2"/>
+    <sheet name="メンバー" sheetId="3" r:id="rId3"/>
+    <sheet name="メンバーcode" sheetId="4" r:id="rId4"/>
+    <sheet name="衣装" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="176">
+  <si>
+    <t>君のこころは輝いてるかい？</t>
+  </si>
+  <si>
+    <t>TOKIMEKI Runners 17章Ver.</t>
+  </si>
+  <si>
+    <t>嵐のなかの恋だから</t>
+  </si>
+  <si>
+    <t>青空Jumping Heart</t>
+  </si>
+  <si>
+    <t>Love U my friends</t>
+  </si>
+  <si>
+    <t>Snow halation</t>
+  </si>
+  <si>
+    <t>KOKORO Magic “A to Z”</t>
+  </si>
+  <si>
+    <t>夢への一歩</t>
+  </si>
+  <si>
+    <t>僕らは今のなかで</t>
+  </si>
+  <si>
+    <t>HAPPY PARTY TRAIN</t>
+  </si>
+  <si>
+    <t>ダイアモンド</t>
+  </si>
+  <si>
+    <t>Music S.T.A.R.T!!</t>
+  </si>
+  <si>
+    <t>スリリング・ワンウェイ</t>
+  </si>
+  <si>
+    <t>あなたの理想のヒロイン</t>
+  </si>
+  <si>
+    <t>僕らのLIVE 君とのLIFE</t>
+  </si>
+  <si>
+    <t>Step! ZERO to ONE</t>
+  </si>
+  <si>
+    <t>Starlight</t>
+  </si>
+  <si>
+    <t>夏色えがおで1, 2, Jump!</t>
+  </si>
+  <si>
+    <t>SKY JOURNEY</t>
+  </si>
+  <si>
+    <t>めっちゃGoing!!</t>
+  </si>
+  <si>
+    <t>HERT to HERT!</t>
+  </si>
+  <si>
+    <t>Wake up, Challenger!!</t>
+  </si>
+  <si>
+    <t>眠れる森に行きたいな</t>
+  </si>
+  <si>
+    <t>ユメノトビラ</t>
+  </si>
+  <si>
+    <t>Brightest Melody</t>
+  </si>
+  <si>
+    <t>CHASE!</t>
+  </si>
+  <si>
+    <t>Wonder zone</t>
+  </si>
+  <si>
+    <t>恋になりたいAQUARIUM</t>
+  </si>
+  <si>
+    <t>Evergreen</t>
+  </si>
+  <si>
+    <t>Wonderful Rush</t>
+  </si>
+  <si>
+    <t>MIRACLE WAVE</t>
+  </si>
+  <si>
+    <t>ドキピポ☆エモーション</t>
+  </si>
+  <si>
+    <t>No brand girls</t>
+  </si>
+  <si>
+    <t>未体験HORIZON</t>
+  </si>
+  <si>
+    <t>決意の光</t>
+  </si>
+  <si>
+    <t>LOVELESS WORLD</t>
+  </si>
+  <si>
+    <t>Landing action Yeah!!</t>
+  </si>
+  <si>
+    <t>Say Good-Bye 涙</t>
+  </si>
+  <si>
+    <t>どんなときもずっと</t>
+  </si>
+  <si>
+    <t>ジングルベルがとまらない</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Happy maker!</t>
+  </si>
+  <si>
+    <t>Hop? Stop? Nonstop!</t>
+  </si>
+  <si>
+    <t>やがてひとつの物語</t>
+  </si>
+  <si>
+    <t>COLORFUL VOICE</t>
+  </si>
+  <si>
+    <t>待ってて愛のうた</t>
+  </si>
+  <si>
+    <t>Fire Bird</t>
+  </si>
+  <si>
+    <t>Angelic Angel</t>
+  </si>
+  <si>
+    <t>トリコリコPLEASE!!</t>
+  </si>
+  <si>
+    <t>楽しいの天才</t>
+  </si>
+  <si>
+    <t>KiRa-KiRa Sensation!</t>
+  </si>
+  <si>
+    <t>元気全開DAY!DAY!DAY!</t>
+  </si>
+  <si>
+    <t>Märchen Star</t>
+  </si>
+  <si>
+    <t>もぎゅっと“love”で接近中!</t>
+  </si>
+  <si>
+    <t>Strawberry Trapper</t>
+  </si>
+  <si>
+    <t>LIKE IT！LOVE IT！</t>
+  </si>
+  <si>
+    <t>僕たちはひとつの光</t>
+  </si>
+  <si>
+    <t>GALAXY HidE and Seek</t>
+  </si>
+  <si>
+    <t>哀温ノ詩</t>
+  </si>
+  <si>
+    <t>PSYCHIC FIRE</t>
+  </si>
+  <si>
+    <t>近未来ハッピーエンド</t>
+  </si>
+  <si>
+    <t>アナログハート</t>
+  </si>
+  <si>
+    <t>春情ロマンティック</t>
+  </si>
+  <si>
+    <t>コワレヤスキ</t>
+  </si>
+  <si>
+    <t>NO EXIT ORION</t>
+  </si>
+  <si>
+    <t>虹色Passions!</t>
+  </si>
+  <si>
+    <t>それは僕たちの奇跡</t>
+  </si>
+  <si>
+    <t>未来の僕らは知ってるよ</t>
+  </si>
+  <si>
+    <t>TOKIMEKI Runners</t>
+  </si>
+  <si>
+    <t>STRAT:DASH!!</t>
+  </si>
+  <si>
+    <t>μ's</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aqours</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虹ヶ咲</t>
+    <rPh sb="0" eb="3">
+      <t>ニジガサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIRAI TICKET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;LI&gt;・&lt;a href="https://twitter.com/search?q=それは僕たちの奇跡(%23スクスタ撮影部)%20(from%3Akoji_kk9)&amp;src=saved_search_click" target="_blank"&gt;それは僕たちの奇跡 &lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;LI&gt;・&lt;a href="https://twitter.com/search?q=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(%23スクスタ撮影部)%20(from%3Akoji_kk9)&amp;src=saved_search_click" target="_blank"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#高坂穂乃果</t>
+  </si>
+  <si>
+    <t>#高海千歌</t>
+  </si>
+  <si>
+    <t>#上原歩夢</t>
+  </si>
+  <si>
+    <t>#絢瀬絵里</t>
+  </si>
+  <si>
+    <t>#桜内梨子</t>
+  </si>
+  <si>
+    <t>#中須かすみ</t>
+  </si>
+  <si>
+    <t>#南ことり</t>
+  </si>
+  <si>
+    <t>#松浦果南</t>
+  </si>
+  <si>
+    <t>#桜坂しずく</t>
+  </si>
+  <si>
+    <t>#園田海未</t>
+  </si>
+  <si>
+    <t>#黒澤ダイヤ</t>
+  </si>
+  <si>
+    <t>#朝香果林</t>
+  </si>
+  <si>
+    <t>#星空凛</t>
+  </si>
+  <si>
+    <t>#渡辺曜</t>
+  </si>
+  <si>
+    <t>#宮下愛</t>
+  </si>
+  <si>
+    <t>#西木野真姫</t>
+  </si>
+  <si>
+    <t>#津島善子</t>
+  </si>
+  <si>
+    <t>#近江彼方</t>
+  </si>
+  <si>
+    <t>#東條希</t>
+  </si>
+  <si>
+    <t>#国木田花丸</t>
+  </si>
+  <si>
+    <t>#優木せつ菜</t>
+  </si>
+  <si>
+    <t>#小泉花陽</t>
+  </si>
+  <si>
+    <t>#小原鞠莉</t>
+  </si>
+  <si>
+    <t>#エマ・ヴェルデ</t>
+  </si>
+  <si>
+    <t>#矢澤にこ</t>
+  </si>
+  <si>
+    <t>#黒澤ルビィ</t>
+  </si>
+  <si>
+    <t>#天王寺‪璃奈‬</t>
+  </si>
+  <si>
+    <t>#三船栞子</t>
+  </si>
+  <si>
+    <t>#高坂穂乃果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;LI&gt;・&lt;a href="https://twitter.com/search?q=(%23スクスタ撮影部%20%23#高坂穂乃果)%20(from%3Akoji_kk9)&amp;src=saved_search_click" target="_blank"&gt;高坂穂乃果&lt;/a&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高坂穂乃果</t>
+  </si>
+  <si>
+    <t>絢瀬絵里</t>
+  </si>
+  <si>
+    <t>南ことり</t>
+  </si>
+  <si>
+    <t>園田海未</t>
+  </si>
+  <si>
+    <t>星空凛</t>
+  </si>
+  <si>
+    <t>西木野真姫</t>
+  </si>
+  <si>
+    <t>東條希</t>
+  </si>
+  <si>
+    <t>小泉花陽</t>
+  </si>
+  <si>
+    <t>矢澤にこ</t>
+  </si>
+  <si>
+    <t>高海千歌</t>
+  </si>
+  <si>
+    <t>桜内梨子</t>
+  </si>
+  <si>
+    <t>松浦果南</t>
+  </si>
+  <si>
+    <t>黒澤ダイヤ</t>
+  </si>
+  <si>
+    <t>渡辺曜</t>
+  </si>
+  <si>
+    <t>津島善子</t>
+  </si>
+  <si>
+    <t>国木田花丸</t>
+  </si>
+  <si>
+    <t>小原鞠莉</t>
+  </si>
+  <si>
+    <t>黒澤ルビィ</t>
+  </si>
+  <si>
+    <t>上原歩夢</t>
+  </si>
+  <si>
+    <t>中須かすみ</t>
+  </si>
+  <si>
+    <t>桜坂しずく</t>
+  </si>
+  <si>
+    <t>朝香果林</t>
+  </si>
+  <si>
+    <t>宮下愛</t>
+  </si>
+  <si>
+    <t>近江彼方</t>
+  </si>
+  <si>
+    <t>優木せつ菜</t>
+  </si>
+  <si>
+    <t>エマ・ヴェルデ</t>
+  </si>
+  <si>
+    <t>天王寺‪璃奈‬</t>
+  </si>
+  <si>
+    <t>三船栞子</t>
+  </si>
+  <si>
+    <t>&lt;LI&gt;・&lt;a href="https://twitter.com/search?q=(%23スクスタ撮影部%20%23</t>
+  </si>
+  <si>
+    <t>)%20(from%3Akoji_kk9)&amp;src=saved_search_click" target="_blank"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Printemps</t>
+  </si>
+  <si>
+    <t>Bi Bi</t>
+  </si>
+  <si>
+    <t>lily white</t>
+  </si>
+  <si>
+    <t>CYaRon</t>
+  </si>
+  <si>
+    <t>Guilty Kiss</t>
+  </si>
+  <si>
+    <t>AZALEA</t>
+  </si>
+  <si>
+    <t>DiverDiva</t>
+  </si>
+  <si>
+    <t>A・ZU・NA</t>
+  </si>
+  <si>
+    <t>QU4RTZ</t>
+  </si>
+  <si>
+    <t>それ僕衣装</t>
+  </si>
+  <si>
+    <t>ハピネスチアガール</t>
+  </si>
+  <si>
+    <t>レインボーローズ</t>
+  </si>
+  <si>
+    <t>フレッシュフルーツパーラー</t>
+  </si>
+  <si>
+    <t>スノハレ</t>
+  </si>
+  <si>
+    <t>恋アク</t>
+  </si>
+  <si>
+    <t>ぼららら衣装</t>
+  </si>
+  <si>
+    <t>君ここ衣装</t>
+  </si>
+  <si>
+    <t>ワンダラ衣装</t>
+  </si>
+  <si>
+    <t>ブラメロ衣装</t>
+  </si>
+  <si>
+    <t>恋アク衣装</t>
+  </si>
+  <si>
+    <t>ベジタブル⭐︎ワンダーランド</t>
+  </si>
+  <si>
+    <t>Miracle voyage</t>
+  </si>
+  <si>
+    <t>Sweets Deco</t>
+  </si>
+  <si>
+    <t>フラワーシンフォニー</t>
+  </si>
+  <si>
+    <t>竜宮城の姫君</t>
+  </si>
+  <si>
+    <t>赤ずきんちゃん達</t>
+  </si>
+  <si>
+    <t>Snow Crystal</t>
+  </si>
+  <si>
+    <t>湯けむり天女</t>
+  </si>
+  <si>
+    <t>熱烈歓迎☆チャイナメイド</t>
+  </si>
+  <si>
+    <t>レインドロップ</t>
+  </si>
+  <si>
+    <t>もののけガール</t>
+  </si>
+  <si>
+    <t>おもちゃの世界へようこそ</t>
+  </si>
+  <si>
+    <t>Pioneering a new World</t>
+  </si>
+  <si>
+    <t>マジカル⭐︎ヒロイン</t>
+  </si>
+  <si>
+    <t>オールスターズプロローグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーチング・ハーモニー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わくわくアニマル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +596,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +639,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +922,2889 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection sqref="A1:A74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="3" width="26.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0F1A39-EB5E-4504-9BCE-5D2FC6CF95E5}">
+  <dimension ref="A1:E75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.58203125" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC72A57-DF97-4D77-8B16-12A939162103}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="str">
+        <f>A1</f>
+        <v>#高坂穂乃果</v>
+      </c>
+      <c r="D1" t="str">
+        <f>A2</f>
+        <v>#高海千歌</v>
+      </c>
+      <c r="E1" t="str">
+        <f>A3</f>
+        <v>#上原歩夢</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="str">
+        <f>A4</f>
+        <v>#絢瀬絵里</v>
+      </c>
+      <c r="D4" t="str">
+        <f>A5</f>
+        <v>#桜内梨子</v>
+      </c>
+      <c r="E4" t="str">
+        <f>A6</f>
+        <v>#中須かすみ</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="str">
+        <f>A7</f>
+        <v>#南ことり</v>
+      </c>
+      <c r="D7" t="str">
+        <f>A8</f>
+        <v>#松浦果南</v>
+      </c>
+      <c r="E7" t="str">
+        <f>A9</f>
+        <v>#桜坂しずく</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="str">
+        <f>A10</f>
+        <v>#園田海未</v>
+      </c>
+      <c r="D10" t="str">
+        <f>A11</f>
+        <v>#黒澤ダイヤ</v>
+      </c>
+      <c r="E10" t="str">
+        <f>A12</f>
+        <v>#朝香果林</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="str">
+        <f>A13</f>
+        <v>#星空凛</v>
+      </c>
+      <c r="D13" t="str">
+        <f>A14</f>
+        <v>#渡辺曜</v>
+      </c>
+      <c r="E13" t="str">
+        <f>A15</f>
+        <v>#宮下愛</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="str">
+        <f>A16</f>
+        <v>#西木野真姫</v>
+      </c>
+      <c r="D16" t="str">
+        <f>A17</f>
+        <v>#津島善子</v>
+      </c>
+      <c r="E16" t="str">
+        <f>A18</f>
+        <v>#近江彼方</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="str">
+        <f>A19</f>
+        <v>#東條希</v>
+      </c>
+      <c r="D19" t="str">
+        <f>A20</f>
+        <v>#国木田花丸</v>
+      </c>
+      <c r="E19" t="str">
+        <f>A21</f>
+        <v>#優木せつ菜</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="str">
+        <f>A22</f>
+        <v>#小泉花陽</v>
+      </c>
+      <c r="D22" t="str">
+        <f>A23</f>
+        <v>#小原鞠莉</v>
+      </c>
+      <c r="E22" t="str">
+        <f>A24</f>
+        <v>#エマ・ヴェルデ</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="str">
+        <f>A25</f>
+        <v>#矢澤にこ</v>
+      </c>
+      <c r="D25" t="str">
+        <f>A26</f>
+        <v>#黒澤ルビィ</v>
+      </c>
+      <c r="E25" t="str">
+        <f>A27</f>
+        <v>#天王寺‪璃奈‬</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E724E24-0570-43A3-BC36-6ACFB4C3A5C6}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C0FA2D-6F3B-47C9-93C1-15D703C96936}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A961">
+    <sortCondition ref="A1:A961"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SSSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9450EE-F51B-4210-A298-D3C79AFBDF1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D485B8F2-BFCA-49CC-94EF-E15EB82A14D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-110" windowWidth="18410" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2570" yWindow="1690" windowWidth="13230" windowHeight="13670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="楽曲" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="175">
   <si>
     <t>君のこころは輝いてるかい？</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t>スノハレ</t>
-  </si>
-  <si>
-    <t>恋アク</t>
   </si>
   <si>
     <t>ぼららら衣装</t>
@@ -925,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection sqref="A1:A74"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1315,7 +1312,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3651,157 +3648,541 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C0FA2D-6F3B-47C9-93C1-15D703C96936}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>158</v>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A961">
-    <sortCondition ref="A1:A961"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A962">
+    <sortCondition ref="A1:A962"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
